--- a/data/vq-config.xlsx
+++ b/data/vq-config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="466">
   <si>
     <t>name</t>
   </si>
@@ -1080,6 +1080,9 @@
   </si>
   <si>
     <t>Can you follow the melody around the quartet?</t>
+  </si>
+  <si>
+    <t>scores/melody_debussy.jpg</t>
   </si>
   <si>
     <t>How does Debussy tell the player to use pizzicato (plucking the strings)?</t>
@@ -8563,7 +8566,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -26069,7 +26072,9 @@
       <c r="H40" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="57"/>
+      <c r="I40" s="61" t="s">
+        <v>350</v>
+      </c>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -26108,7 +26113,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
       <c r="G42" s="58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
@@ -26123,13 +26128,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
       <c r="D43" s="56"/>
       <c r="E43" s="64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F43" s="58" t="s">
         <v>12</v>
@@ -26158,7 +26163,7 @@
       <c r="C44" s="55"/>
       <c r="D44" s="56"/>
       <c r="E44" s="64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F44" s="58" t="s">
         <v>12</v>
@@ -26176,7 +26181,7 @@
       <c r="O44" s="55"/>
       <c r="P44" s="55"/>
       <c r="Q44" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -26185,7 +26190,7 @@
       <c r="C45" s="55"/>
       <c r="D45" s="56"/>
       <c r="E45" s="58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F45" s="55"/>
       <c r="G45" s="58" t="s">
@@ -26201,7 +26206,7 @@
       <c r="O45" s="55"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -26214,13 +26219,13 @@
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
       <c r="G46" s="58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H46" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I46" s="60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
@@ -26239,7 +26244,7 @@
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H47" s="57"/>
       <c r="I47" s="53"/>
@@ -26260,7 +26265,7 @@
       <c r="E48" s="55"/>
       <c r="F48" s="55"/>
       <c r="G48" s="58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
@@ -26281,7 +26286,7 @@
       <c r="C49" s="55"/>
       <c r="D49" s="56"/>
       <c r="E49" s="65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>12</v>
@@ -26310,7 +26315,7 @@
       <c r="C50" s="55"/>
       <c r="D50" s="56"/>
       <c r="E50" s="65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>12</v>
@@ -26337,7 +26342,7 @@
       <c r="C51" s="55"/>
       <c r="D51" s="56"/>
       <c r="E51" s="65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F51" s="55"/>
       <c r="G51" s="55" t="s">
@@ -26393,7 +26398,7 @@
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
       <c r="G53" s="58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H53" s="57"/>
       <c r="I53" s="57"/>
@@ -26468,7 +26473,7 @@
       </c>
       <c r="D56" s="56"/>
       <c r="E56" s="58" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
@@ -26495,13 +26500,13 @@
       <c r="E57" s="55"/>
       <c r="F57" s="55"/>
       <c r="G57" s="58" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H57" s="57" t="s">
         <v>121</v>
       </c>
       <c r="I57" s="63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
@@ -26520,7 +26525,7 @@
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
       <c r="G58" s="58" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H58" s="57"/>
       <c r="I58" s="57"/>
@@ -26601,7 +26606,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H61" s="57"/>
       <c r="I61" s="57"/>
@@ -26657,7 +26662,7 @@
         <v>120</v>
       </c>
       <c r="I63" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -26676,7 +26681,7 @@
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
       <c r="G64" s="58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H64" s="57"/>
       <c r="I64" s="57"/>
@@ -26697,7 +26702,7 @@
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H65" s="57"/>
       <c r="I65" s="57"/>
@@ -26745,13 +26750,13 @@
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
       <c r="G67" s="58" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H67" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J67" s="55"/>
       <c r="K67" s="55"/>
@@ -26770,7 +26775,7 @@
       <c r="E68" s="55"/>
       <c r="F68" s="55"/>
       <c r="G68" s="58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H68" s="57"/>
       <c r="I68" s="57"/>
@@ -26791,7 +26796,7 @@
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H69" s="57"/>
       <c r="I69" s="57"/>
@@ -26812,7 +26817,7 @@
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
@@ -26833,7 +26838,7 @@
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
       <c r="G71" s="58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H71" s="57"/>
       <c r="I71" s="57"/>
@@ -26854,7 +26859,7 @@
       <c r="C72" s="55"/>
       <c r="D72" s="56"/>
       <c r="E72" s="58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F72" s="55" t="s">
         <v>12</v>
@@ -26883,7 +26888,7 @@
       <c r="C73" s="55"/>
       <c r="D73" s="56"/>
       <c r="E73" s="58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>12</v>
@@ -26910,7 +26915,7 @@
       <c r="C74" s="55"/>
       <c r="D74" s="56"/>
       <c r="E74" s="58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F74" s="55"/>
       <c r="G74" s="55" t="s">
@@ -33717,7 +33722,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="G2" s="58" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
@@ -33740,7 +33745,7 @@
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
       <c r="G3" s="58" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -33788,7 +33793,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -33811,7 +33816,7 @@
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="58" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -33832,7 +33837,7 @@
       </c>
       <c r="D7" s="56"/>
       <c r="E7" s="58" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>12</v>
@@ -33859,7 +33864,7 @@
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F8" s="55" t="s">
         <v>12</v>
@@ -33886,7 +33891,7 @@
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -33940,7 +33945,7 @@
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
       <c r="G11" s="58" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
@@ -34015,7 +34020,7 @@
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="58" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="55"/>
@@ -34042,13 +34047,13 @@
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H15" s="57" t="s">
         <v>121</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -34067,7 +34072,7 @@
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
@@ -34136,7 +34141,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="55"/>
       <c r="G19" s="58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
@@ -34157,7 +34162,7 @@
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
       <c r="E20" s="58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F20" s="55" t="s">
         <v>12</v>
@@ -34184,7 +34189,7 @@
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
       <c r="E21" s="58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F21" s="55" t="s">
         <v>12</v>
@@ -34211,7 +34216,7 @@
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
       <c r="E22" s="58" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>12</v>
@@ -34238,7 +34243,7 @@
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
       <c r="E23" s="58" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F23" s="58" t="s">
         <v>12</v>
@@ -34265,7 +34270,7 @@
       <c r="C24" s="55"/>
       <c r="D24" s="56"/>
       <c r="E24" s="58" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="58" t="s">
@@ -34296,13 +34301,13 @@
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
       <c r="G25" s="58" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H25" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -34321,7 +34326,7 @@
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
       <c r="G26" s="58" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H26" s="57"/>
       <c r="I26" s="57"/>
@@ -34342,7 +34347,7 @@
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
@@ -34363,7 +34368,7 @@
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="58" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H28" s="57"/>
       <c r="I28" s="57"/>
@@ -34384,7 +34389,7 @@
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H29" s="57"/>
       <c r="I29" s="57"/>
@@ -34405,7 +34410,7 @@
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
       <c r="E30" s="58" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F30" s="55" t="s">
         <v>12</v>
@@ -34434,7 +34439,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="56"/>
       <c r="E31" s="58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F31" s="55" t="s">
         <v>12</v>
@@ -34461,7 +34466,7 @@
       <c r="C32" s="55"/>
       <c r="D32" s="56"/>
       <c r="E32" s="58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="55" t="s">
@@ -34517,7 +34522,7 @@
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
       <c r="G34" s="58" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
@@ -34592,7 +34597,7 @@
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="58" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
@@ -34619,13 +34624,13 @@
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
       <c r="G38" s="58" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H38" s="57" t="s">
         <v>121</v>
       </c>
       <c r="I38" s="63" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
@@ -34644,7 +34649,7 @@
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
       <c r="G39" s="58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
@@ -34663,7 +34668,7 @@
       <c r="C40" s="55"/>
       <c r="D40" s="56"/>
       <c r="E40" s="58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -34696,7 +34701,7 @@
         <v>120</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
@@ -34736,7 +34741,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
       <c r="G43" s="58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
@@ -34751,13 +34756,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="56"/>
       <c r="E44" s="64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F44" s="58" t="s">
         <v>12</v>
@@ -34786,7 +34791,7 @@
       <c r="C45" s="55"/>
       <c r="D45" s="56"/>
       <c r="E45" s="64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F45" s="58" t="s">
         <v>12</v>
@@ -34804,7 +34809,7 @@
       <c r="O45" s="55"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -34813,7 +34818,7 @@
       <c r="C46" s="55"/>
       <c r="D46" s="56"/>
       <c r="E46" s="58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F46" s="55"/>
       <c r="G46" s="58" t="s">
@@ -34829,7 +34834,7 @@
       <c r="O46" s="55"/>
       <c r="P46" s="55"/>
       <c r="Q46" s="62" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -34842,13 +34847,13 @@
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H47" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -34867,7 +34872,7 @@
       <c r="E48" s="55"/>
       <c r="F48" s="55"/>
       <c r="G48" s="58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H48" s="57"/>
       <c r="I48" s="53"/>
@@ -34888,7 +34893,7 @@
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
@@ -34909,7 +34914,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
@@ -34930,7 +34935,7 @@
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
       <c r="G51" s="58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
@@ -34951,7 +34956,7 @@
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>12</v>
@@ -34980,7 +34985,7 @@
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
       <c r="E53" s="58" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>12</v>
@@ -35007,7 +35012,7 @@
       <c r="C54" s="55"/>
       <c r="D54" s="56"/>
       <c r="E54" s="58" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F54" s="55"/>
       <c r="G54" s="55" t="s">
@@ -35063,7 +35068,7 @@
       <c r="E56" s="55"/>
       <c r="F56" s="55"/>
       <c r="G56" s="58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H56" s="57"/>
       <c r="I56" s="57"/>
@@ -35138,7 +35143,7 @@
       </c>
       <c r="D59" s="56"/>
       <c r="E59" s="58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F59" s="55"/>
       <c r="G59" s="55"/>
@@ -35165,13 +35170,13 @@
       <c r="E60" s="55"/>
       <c r="F60" s="55"/>
       <c r="G60" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H60" s="57" t="s">
         <v>121</v>
       </c>
       <c r="I60" s="63" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J60" s="55"/>
       <c r="K60" s="55"/>
@@ -35190,7 +35195,7 @@
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
       <c r="G61" s="58" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H61" s="57"/>
       <c r="I61" s="57"/>
@@ -35209,7 +35214,7 @@
       <c r="C62" s="55"/>
       <c r="D62" s="56"/>
       <c r="E62" s="58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F62" s="58"/>
       <c r="G62" s="66"/>
@@ -35242,7 +35247,7 @@
         <v>120</v>
       </c>
       <c r="I63" s="60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -35261,7 +35266,7 @@
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
       <c r="G64" s="58" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H64" s="57"/>
       <c r="I64" s="57"/>
@@ -35282,7 +35287,7 @@
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H65" s="57"/>
       <c r="I65" s="57"/>
@@ -35303,7 +35308,7 @@
       <c r="C66" s="55"/>
       <c r="D66" s="56"/>
       <c r="E66" s="58" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F66" s="58" t="s">
         <v>12</v>
@@ -35332,7 +35337,7 @@
       <c r="C67" s="55"/>
       <c r="D67" s="56"/>
       <c r="E67" s="58" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F67" s="58" t="s">
         <v>12</v>
@@ -35359,7 +35364,7 @@
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="58" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="58" t="s">
@@ -35388,13 +35393,13 @@
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H69" s="57" t="s">
         <v>120</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J69" s="55"/>
       <c r="K69" s="55"/>
@@ -35413,7 +35418,7 @@
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
@@ -35434,7 +35439,7 @@
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
       <c r="G71" s="58" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H71" s="57"/>
       <c r="I71" s="57"/>
@@ -35455,7 +35460,7 @@
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
       <c r="G72" s="58" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H72" s="57"/>
       <c r="I72" s="57"/>
@@ -35476,7 +35481,7 @@
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
       <c r="G73" s="58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H73" s="57"/>
       <c r="I73" s="57"/>
@@ -35497,7 +35502,7 @@
       <c r="E74" s="58"/>
       <c r="F74" s="55"/>
       <c r="G74" s="58" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H74" s="57"/>
       <c r="I74" s="57"/>
@@ -35518,7 +35523,7 @@
       <c r="C75" s="55"/>
       <c r="D75" s="56"/>
       <c r="E75" s="58" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F75" s="55" t="s">
         <v>12</v>
@@ -35545,7 +35550,7 @@
       <c r="C76" s="55"/>
       <c r="D76" s="56"/>
       <c r="E76" s="58" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>12</v>
@@ -35572,7 +35577,7 @@
       <c r="C77" s="55"/>
       <c r="D77" s="56"/>
       <c r="E77" s="58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F77" s="55"/>
       <c r="G77" s="58" t="s">
@@ -42376,7 +42381,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="14" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -42399,7 +42404,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -42414,10 +42419,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="11"/>
@@ -42426,7 +42431,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -42449,7 +42454,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -42470,7 +42475,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -42480,7 +42485,7 @@
         <v>121</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -42492,7 +42497,7 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -42503,7 +42508,7 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -42513,7 +42518,7 @@
         <v>121</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -42525,7 +42530,7 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -42536,7 +42541,7 @@
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -42546,7 +42551,7 @@
         <v>121</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -42558,7 +42563,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -42569,7 +42574,7 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -42579,7 +42584,7 @@
         <v>121</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -42591,18 +42596,18 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -42612,7 +42617,7 @@
         <v>121</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -42620,22 +42625,22 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -42645,7 +42650,7 @@
         <v>121</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -42653,22 +42658,22 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -42676,7 +42681,7 @@
         <v>121</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -42684,16 +42689,16 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -42713,7 +42718,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
